--- a/Parameters/ProjectsTypesDescriptions.xlsx
+++ b/Parameters/ProjectsTypesDescriptions.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ddd\04. Настройки\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD0F6D3-19AE-4FE0-B809-04A8BF5F5F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91646639-44B0-4E0B-8487-C12122217EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -591,7 +586,6 @@
       <c r="B18" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="H152S+E0qmPtlzECsUbe1UlOrooajRkX9O2RbozuRsFDa5HbHSikwar6eubETBG78IHoEiPLN7OALxw5nVpU7g==" saltValue="1NBA4GaJB3Dy2IauKIn1CA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>

--- a/Parameters/ProjectsTypesDescriptions.xlsx
+++ b/Parameters/ProjectsTypesDescriptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91646639-44B0-4E0B-8487-C12122217EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFB8756-A529-42F8-97A0-C4703468C4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-12045" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-11175" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -464,7 +464,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
